--- a/Input/clinton_approval.xlsx
+++ b/Input/clinton_approval.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="7">
   <si>
     <t>start_date_clinton</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>unsure_clinton</t>
+  </si>
+  <si>
+    <t>president</t>
+  </si>
+  <si>
+    <t>Clinton</t>
   </si>
 </sst>
 </file>
@@ -390,13 +396,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E229"/>
+  <dimension ref="A1:F229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -412,8 +418,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>36901</v>
       </c>
@@ -429,8 +438,11 @@
       <c r="E2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>36896</v>
       </c>
@@ -446,8 +458,11 @@
       <c r="E3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>36875</v>
       </c>
@@ -463,8 +478,11 @@
       <c r="E4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>36862</v>
       </c>
@@ -480,8 +498,11 @@
       <c r="E5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>36843</v>
       </c>
@@ -497,8 +518,11 @@
       <c r="E6">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>36824</v>
       </c>
@@ -514,8 +538,11 @@
       <c r="E7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>36805</v>
       </c>
@@ -531,8 +558,11 @@
       <c r="E8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>36780</v>
       </c>
@@ -548,8 +578,11 @@
       <c r="E9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>36767</v>
       </c>
@@ -565,8 +598,11 @@
       <c r="E10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>36756</v>
       </c>
@@ -582,8 +618,11 @@
       <c r="E11">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>36749</v>
       </c>
@@ -599,8 +638,11 @@
       <c r="E12">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>36742</v>
       </c>
@@ -616,8 +658,11 @@
       <c r="E13">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>36732</v>
       </c>
@@ -633,8 +678,11 @@
       <c r="E14">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>36721</v>
       </c>
@@ -650,8 +698,11 @@
       <c r="E15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>36713</v>
       </c>
@@ -667,8 +718,11 @@
       <c r="E16">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>36699</v>
       </c>
@@ -684,8 +738,11 @@
       <c r="E17">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>36683</v>
       </c>
@@ -701,8 +758,11 @@
       <c r="E18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>36664</v>
       </c>
@@ -718,8 +778,11 @@
       <c r="E19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>36650</v>
       </c>
@@ -735,8 +798,11 @@
       <c r="E20">
         <v>6</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>36644</v>
       </c>
@@ -752,8 +818,11 @@
       <c r="E21">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>36615</v>
       </c>
@@ -769,8 +838,11 @@
       <c r="E22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>36602</v>
       </c>
@@ -786,8 +858,11 @@
       <c r="E23">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>36595</v>
       </c>
@@ -803,8 +878,11 @@
       <c r="E24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>36581</v>
       </c>
@@ -820,8 +898,11 @@
       <c r="E25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>36570</v>
       </c>
@@ -837,8 +918,11 @@
       <c r="E26">
         <v>4</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>36560</v>
       </c>
@@ -854,8 +938,11 @@
       <c r="E27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>36550</v>
       </c>
@@ -871,8 +958,11 @@
       <c r="E28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>36542</v>
       </c>
@@ -888,8 +978,11 @@
       <c r="E29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>36538</v>
       </c>
@@ -905,8 +998,11 @@
       <c r="E30">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>36532</v>
       </c>
@@ -922,8 +1018,11 @@
       <c r="E31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>36514</v>
       </c>
@@ -939,8 +1038,11 @@
       <c r="E32">
         <v>6</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="2">
         <v>36503</v>
       </c>
@@ -956,8 +1058,11 @@
       <c r="E33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="2">
         <v>36482</v>
       </c>
@@ -973,8 +1078,11 @@
       <c r="E34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="2">
         <v>36468</v>
       </c>
@@ -990,8 +1098,11 @@
       <c r="E35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="2">
         <v>36454</v>
       </c>
@@ -1007,8 +1118,11 @@
       <c r="E36">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="2">
         <v>36441</v>
       </c>
@@ -1024,8 +1138,11 @@
       <c r="E37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="2">
         <v>36426</v>
       </c>
@@ -1041,8 +1158,11 @@
       <c r="E38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="2">
         <v>36413</v>
       </c>
@@ -1058,8 +1178,11 @@
       <c r="E39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="2">
         <v>36396</v>
       </c>
@@ -1075,8 +1198,11 @@
       <c r="E40">
         <v>5</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="2">
         <v>36388</v>
       </c>
@@ -1092,8 +1218,11 @@
       <c r="E41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="2">
         <v>36375</v>
       </c>
@@ -1109,8 +1238,11 @@
       <c r="E42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="2">
         <v>36364</v>
       </c>
@@ -1126,8 +1258,11 @@
       <c r="E43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="2">
         <v>36357</v>
       </c>
@@ -1143,8 +1278,11 @@
       <c r="E44">
         <v>3</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="2">
         <v>36354</v>
       </c>
@@ -1160,8 +1298,11 @@
       <c r="E45">
         <v>4</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="2">
         <v>36336</v>
       </c>
@@ -1177,8 +1318,11 @@
       <c r="E46">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="2">
         <v>36322</v>
       </c>
@@ -1194,8 +1338,11 @@
       <c r="E47">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="2">
         <v>36315</v>
       </c>
@@ -1211,8 +1358,11 @@
       <c r="E48">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="2">
         <v>36301</v>
       </c>
@@ -1228,8 +1378,11 @@
       <c r="E49">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="2">
         <v>36287</v>
       </c>
@@ -1245,8 +1398,11 @@
       <c r="E50">
         <v>5</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="2">
         <v>36280</v>
       </c>
@@ -1262,8 +1418,11 @@
       <c r="E51">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="F51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="2">
         <v>36276</v>
       </c>
@@ -1279,8 +1438,11 @@
       <c r="E52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="2">
         <v>36263</v>
       </c>
@@ -1296,8 +1458,11 @@
       <c r="E53">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="F53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="2">
         <v>36256</v>
       </c>
@@ -1313,8 +1478,11 @@
       <c r="E54">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="F54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="2">
         <v>36249</v>
       </c>
@@ -1330,8 +1498,11 @@
       <c r="E55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="F55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="2">
         <v>36238</v>
       </c>
@@ -1347,8 +1518,11 @@
       <c r="E56">
         <v>3</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="F56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="2">
         <v>36231</v>
       </c>
@@ -1364,8 +1538,11 @@
       <c r="E57">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="2">
         <v>36224</v>
       </c>
@@ -1381,8 +1558,11 @@
       <c r="E58">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="F58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="2">
         <v>36217</v>
       </c>
@@ -1398,8 +1578,11 @@
       <c r="E59">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="F59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="2">
         <v>36210</v>
       </c>
@@ -1415,8 +1598,11 @@
       <c r="E60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="F60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2">
         <v>36203</v>
       </c>
@@ -1432,8 +1618,11 @@
       <c r="E61">
         <v>2</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="F61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="2">
         <v>36200</v>
       </c>
@@ -1449,8 +1638,11 @@
       <c r="E62">
         <v>2</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="2">
         <v>36199</v>
       </c>
@@ -1466,8 +1658,11 @@
       <c r="E63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="F63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="2">
         <v>36195</v>
       </c>
@@ -1483,8 +1678,11 @@
       <c r="E64">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="F64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="2">
         <v>36193</v>
       </c>
@@ -1500,8 +1698,11 @@
       <c r="E65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="F65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="2">
         <v>36187</v>
       </c>
@@ -1517,8 +1718,11 @@
       <c r="E66">
         <v>2</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="F66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="2">
         <v>36182</v>
       </c>
@@ -1534,8 +1738,11 @@
       <c r="E67">
         <v>2</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="F67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="2">
         <v>36175</v>
       </c>
@@ -1551,8 +1758,11 @@
       <c r="E68">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="2">
         <v>36168</v>
       </c>
@@ -1568,8 +1778,11 @@
       <c r="E69">
         <v>3</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="2">
         <v>36166</v>
       </c>
@@ -1585,8 +1798,11 @@
       <c r="E70">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="2">
         <v>36141</v>
       </c>
@@ -1602,8 +1818,11 @@
       <c r="E71">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="2">
         <v>36133</v>
       </c>
@@ -1619,8 +1838,11 @@
       <c r="E72">
         <v>4</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="F72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="2">
         <v>36119</v>
       </c>
@@ -1636,8 +1858,11 @@
       <c r="E73">
         <v>4</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="2">
         <v>36112</v>
       </c>
@@ -1653,8 +1878,11 @@
       <c r="E74">
         <v>3</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="2">
         <v>36097</v>
       </c>
@@ -1670,8 +1898,11 @@
       <c r="E75">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="2">
         <v>36091</v>
       </c>
@@ -1687,8 +1918,11 @@
       <c r="E76">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="2">
         <v>36077</v>
       </c>
@@ -1704,8 +1938,11 @@
       <c r="E77">
         <v>3</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="2">
         <v>36074</v>
       </c>
@@ -1721,8 +1958,11 @@
       <c r="E78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="2">
         <v>36061</v>
       </c>
@@ -1738,8 +1978,11 @@
       <c r="E79">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="2">
         <v>36059</v>
       </c>
@@ -1755,8 +1998,11 @@
       <c r="E80">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="2">
         <v>36058</v>
       </c>
@@ -1772,8 +2018,11 @@
       <c r="E81">
         <v>5</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="2">
         <v>36052</v>
       </c>
@@ -1789,8 +2038,11 @@
       <c r="E82">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="2">
         <v>36049</v>
       </c>
@@ -1806,8 +2058,11 @@
       <c r="E83">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="2">
         <v>36048</v>
       </c>
@@ -1823,8 +2078,11 @@
       <c r="E84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="2">
         <v>36039</v>
       </c>
@@ -1840,8 +2098,11 @@
       <c r="E85">
         <v>4</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="2">
         <v>36028</v>
       </c>
@@ -1857,8 +2118,11 @@
       <c r="E86">
         <v>3</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="2">
         <v>36027</v>
       </c>
@@ -1874,8 +2138,11 @@
       <c r="E87">
         <v>5</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="2">
         <v>36025</v>
       </c>
@@ -1891,8 +2158,11 @@
       <c r="E88">
         <v>5</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="F88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="2">
         <v>36024</v>
       </c>
@@ -1908,8 +2178,11 @@
       <c r="E89">
         <v>5</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="F89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="2">
         <v>36017</v>
       </c>
@@ -1925,8 +2198,11 @@
       <c r="E90">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="F90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="2">
         <v>36014</v>
       </c>
@@ -1942,8 +2218,11 @@
       <c r="E91">
         <v>4</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="F91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="2">
         <v>36005</v>
       </c>
@@ -1959,8 +2238,11 @@
       <c r="E92">
         <v>3</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="F92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="2">
         <v>35989</v>
       </c>
@@ -1976,8 +2258,11 @@
       <c r="E93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="F93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="2">
         <v>35983</v>
       </c>
@@ -1993,8 +2278,11 @@
       <c r="E94">
         <v>5</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="F94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="2">
         <v>35968</v>
       </c>
@@ -2010,8 +2298,11 @@
       <c r="E95">
         <v>6</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="F95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="2">
         <v>35951</v>
       </c>
@@ -2027,8 +2318,11 @@
       <c r="E96">
         <v>5</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="2">
         <v>35923</v>
       </c>
@@ -2044,8 +2338,11 @@
       <c r="E97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="2">
         <v>35902</v>
       </c>
@@ -2061,8 +2358,11 @@
       <c r="E98">
         <v>5</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="2">
         <v>35886</v>
       </c>
@@ -2078,8 +2378,11 @@
       <c r="E99">
         <v>4</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="2">
         <v>35874</v>
       </c>
@@ -2095,8 +2398,11 @@
       <c r="E100">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="2">
         <v>35870</v>
       </c>
@@ -2112,8 +2418,11 @@
       <c r="E101">
         <v>4</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="2">
         <v>35860</v>
       </c>
@@ -2129,8 +2438,11 @@
       <c r="E102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="2">
         <v>35846</v>
       </c>
@@ -2146,8 +2458,11 @@
       <c r="E103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="2">
         <v>35839</v>
       </c>
@@ -2163,8 +2478,11 @@
       <c r="E104">
         <v>3</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="F104" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" s="2">
         <v>35825</v>
       </c>
@@ -2180,8 +2498,11 @@
       <c r="E105">
         <v>3</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="F105" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" s="2">
         <v>35823</v>
       </c>
@@ -2197,8 +2518,11 @@
       <c r="E106">
         <v>5</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="F106" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" s="2">
         <v>35820</v>
       </c>
@@ -2214,8 +2538,11 @@
       <c r="E107">
         <v>4</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="F107" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" s="2">
         <v>35819</v>
       </c>
@@ -2231,8 +2558,11 @@
       <c r="E108">
         <v>5</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="F108" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" s="2">
         <v>35811</v>
       </c>
@@ -2248,8 +2578,11 @@
       <c r="E109">
         <v>10</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="F109" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" s="2">
         <v>35801</v>
       </c>
@@ -2265,8 +2598,11 @@
       <c r="E110">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="F110" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" s="2">
         <v>35782</v>
       </c>
@@ -2282,8 +2618,11 @@
       <c r="E111">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:5">
+      <c r="F111" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" s="2">
         <v>35755</v>
       </c>
@@ -2299,8 +2638,11 @@
       <c r="E112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:5">
+      <c r="F112" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" s="2">
         <v>35740</v>
       </c>
@@ -2316,8 +2658,11 @@
       <c r="E113">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:5">
+      <c r="F113" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" s="2">
         <v>35730</v>
       </c>
@@ -2333,8 +2678,11 @@
       <c r="E114">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:5">
+      <c r="F114" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" s="2">
         <v>35706</v>
       </c>
@@ -2350,8 +2698,11 @@
       <c r="E115">
         <v>8</v>
       </c>
-    </row>
-    <row r="116" spans="1:5">
+      <c r="F115" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" s="2">
         <v>35698</v>
       </c>
@@ -2367,8 +2718,11 @@
       <c r="E116">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:5">
+      <c r="F116" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" s="2">
         <v>35679</v>
       </c>
@@ -2384,8 +2738,11 @@
       <c r="E117">
         <v>11</v>
       </c>
-    </row>
-    <row r="118" spans="1:5">
+      <c r="F117" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" s="2">
         <v>35664</v>
       </c>
@@ -2401,8 +2758,11 @@
       <c r="E118">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="1:5">
+      <c r="F118" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" s="2">
         <v>35654</v>
       </c>
@@ -2418,8 +2778,11 @@
       <c r="E119">
         <v>7</v>
       </c>
-    </row>
-    <row r="120" spans="1:5">
+      <c r="F119" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" s="2">
         <v>35636</v>
       </c>
@@ -2435,8 +2798,11 @@
       <c r="E120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:5">
+      <c r="F120" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" s="2">
         <v>35607</v>
       </c>
@@ -2452,8 +2818,11 @@
       <c r="E121">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:5">
+      <c r="F121" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" s="2">
         <v>35580</v>
       </c>
@@ -2469,8 +2838,11 @@
       <c r="E122">
         <v>8</v>
       </c>
-    </row>
-    <row r="123" spans="1:5">
+      <c r="F122" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" s="2">
         <v>35556</v>
       </c>
@@ -2486,8 +2858,11 @@
       <c r="E123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:5">
+      <c r="F123" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" s="2">
         <v>35538</v>
       </c>
@@ -2503,8 +2878,11 @@
       <c r="E124">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:5">
+      <c r="F124" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" s="2">
         <v>35531</v>
       </c>
@@ -2520,8 +2898,11 @@
       <c r="E125">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:5">
+      <c r="F125" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" s="2">
         <v>35513</v>
       </c>
@@ -2537,8 +2918,11 @@
       <c r="E126">
         <v>6</v>
       </c>
-    </row>
-    <row r="127" spans="1:5">
+      <c r="F126" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" s="2">
         <v>35485</v>
       </c>
@@ -2554,8 +2938,11 @@
       <c r="E127">
         <v>10</v>
       </c>
-    </row>
-    <row r="128" spans="1:5">
+      <c r="F127" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" s="2">
         <v>35461</v>
       </c>
@@ -2571,8 +2958,11 @@
       <c r="E128">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:5">
+      <c r="F128" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" s="2">
         <v>35440</v>
       </c>
@@ -2588,8 +2978,11 @@
       <c r="E129">
         <v>7</v>
       </c>
-    </row>
-    <row r="130" spans="1:5">
+      <c r="F129" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" s="2">
         <v>35433</v>
       </c>
@@ -2605,8 +2998,11 @@
       <c r="E130">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:5">
+      <c r="F130" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" s="2">
         <v>35408</v>
       </c>
@@ -2622,8 +3018,11 @@
       <c r="E131">
         <v>8</v>
       </c>
-    </row>
-    <row r="132" spans="1:5">
+      <c r="F131" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" s="2">
         <v>35390</v>
       </c>
@@ -2639,8 +3038,11 @@
       <c r="E132">
         <v>7</v>
       </c>
-    </row>
-    <row r="133" spans="1:5">
+      <c r="F132" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" s="2">
         <v>35363</v>
       </c>
@@ -2656,8 +3058,11 @@
       <c r="E133">
         <v>9</v>
       </c>
-    </row>
-    <row r="134" spans="1:5">
+      <c r="F133" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" s="2">
         <v>35339</v>
       </c>
@@ -2673,8 +3078,11 @@
       <c r="E134">
         <v>8</v>
       </c>
-    </row>
-    <row r="135" spans="1:5">
+      <c r="F134" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" s="2">
         <v>35307</v>
       </c>
@@ -2690,8 +3098,11 @@
       <c r="E135">
         <v>7</v>
       </c>
-    </row>
-    <row r="136" spans="1:5">
+      <c r="F135" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" s="2">
         <v>35300</v>
       </c>
@@ -2707,8 +3118,11 @@
       <c r="E136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:5">
+      <c r="F136" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" s="2">
         <v>35293</v>
       </c>
@@ -2724,8 +3138,11 @@
       <c r="E137">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:5">
+      <c r="F137" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" s="2">
         <v>35282</v>
       </c>
@@ -2741,8 +3158,11 @@
       <c r="E138">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:5">
+      <c r="F138" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" s="2">
         <v>35272</v>
       </c>
@@ -2758,8 +3178,11 @@
       <c r="E139">
         <v>7</v>
       </c>
-    </row>
-    <row r="140" spans="1:5">
+      <c r="F139" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" s="2">
         <v>35264</v>
       </c>
@@ -2775,8 +3198,11 @@
       <c r="E140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:5">
+      <c r="F140" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" s="2">
         <v>35243</v>
       </c>
@@ -2792,8 +3218,11 @@
       <c r="E141">
         <v>6</v>
       </c>
-    </row>
-    <row r="142" spans="1:5">
+      <c r="F141" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" s="2">
         <v>35234</v>
       </c>
@@ -2809,8 +3238,11 @@
       <c r="E142">
         <v>5</v>
       </c>
-    </row>
-    <row r="143" spans="1:5">
+      <c r="F142" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" s="2">
         <v>35213</v>
       </c>
@@ -2826,8 +3258,11 @@
       <c r="E143">
         <v>8</v>
       </c>
-    </row>
-    <row r="144" spans="1:5">
+      <c r="F143" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" s="2">
         <v>35194</v>
       </c>
@@ -2843,8 +3278,11 @@
       <c r="E144">
         <v>6</v>
       </c>
-    </row>
-    <row r="145" spans="1:5">
+      <c r="F144" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" s="2">
         <v>35180</v>
       </c>
@@ -2860,8 +3298,11 @@
       <c r="E145">
         <v>7</v>
       </c>
-    </row>
-    <row r="146" spans="1:5">
+      <c r="F145" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" s="2">
         <v>35164</v>
       </c>
@@ -2877,8 +3318,11 @@
       <c r="E146">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:5">
+      <c r="F146" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" s="2">
         <v>35139</v>
       </c>
@@ -2894,8 +3338,11 @@
       <c r="E147">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:5">
+      <c r="F147" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" s="2">
         <v>35132</v>
       </c>
@@ -2911,8 +3358,11 @@
       <c r="E148">
         <v>8</v>
       </c>
-    </row>
-    <row r="149" spans="1:5">
+      <c r="F148" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" s="2">
         <v>35118</v>
       </c>
@@ -2928,8 +3378,11 @@
       <c r="E149">
         <v>6</v>
       </c>
-    </row>
-    <row r="150" spans="1:5">
+      <c r="F149" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" s="2">
         <v>35090</v>
       </c>
@@ -2945,8 +3398,11 @@
       <c r="E150">
         <v>6</v>
       </c>
-    </row>
-    <row r="151" spans="1:5">
+      <c r="F150" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" s="2">
         <v>35076</v>
       </c>
@@ -2962,8 +3418,11 @@
       <c r="E151">
         <v>7</v>
       </c>
-    </row>
-    <row r="152" spans="1:5">
+      <c r="F151" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" s="2">
         <v>35069</v>
       </c>
@@ -2979,8 +3438,11 @@
       <c r="E152">
         <v>8</v>
       </c>
-    </row>
-    <row r="153" spans="1:5">
+      <c r="F152" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" s="2">
         <v>35048</v>
       </c>
@@ -2996,8 +3458,11 @@
       <c r="E153">
         <v>5</v>
       </c>
-    </row>
-    <row r="154" spans="1:5">
+      <c r="F153" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" s="2">
         <v>35020</v>
       </c>
@@ -3013,8 +3478,11 @@
       <c r="E154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:5">
+      <c r="F154" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" s="2">
         <v>35009</v>
       </c>
@@ -3030,8 +3498,11 @@
       <c r="E155">
         <v>7</v>
       </c>
-    </row>
-    <row r="156" spans="1:5">
+      <c r="F155" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" s="2">
         <v>34991</v>
       </c>
@@ -3047,8 +3518,11 @@
       <c r="E156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:5">
+      <c r="F156" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" s="2">
         <v>34977</v>
       </c>
@@ -3064,8 +3538,11 @@
       <c r="E157">
         <v>11</v>
       </c>
-    </row>
-    <row r="158" spans="1:5">
+      <c r="F157" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" s="2">
         <v>34964</v>
       </c>
@@ -3081,8 +3558,11 @@
       <c r="E158">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:5">
+      <c r="F158" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" s="2">
         <v>34956</v>
       </c>
@@ -3098,8 +3578,11 @@
       <c r="E159">
         <v>12</v>
       </c>
-    </row>
-    <row r="160" spans="1:5">
+      <c r="F159" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" s="2">
         <v>34939</v>
       </c>
@@ -3115,8 +3598,11 @@
       <c r="E160">
         <v>11</v>
       </c>
-    </row>
-    <row r="161" spans="1:5">
+      <c r="F160" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" s="2">
         <v>34915</v>
       </c>
@@ -3132,8 +3618,11 @@
       <c r="E161">
         <v>12</v>
       </c>
-    </row>
-    <row r="162" spans="1:5">
+      <c r="F161" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" s="2">
         <v>34900</v>
       </c>
@@ -3149,8 +3638,11 @@
       <c r="E162">
         <v>9</v>
       </c>
-    </row>
-    <row r="163" spans="1:5">
+      <c r="F162" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" s="2">
         <v>34887</v>
       </c>
@@ -3166,8 +3658,11 @@
       <c r="E163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:5">
+      <c r="F163" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" s="2">
         <v>34855</v>
       </c>
@@ -3183,8 +3678,11 @@
       <c r="E164">
         <v>10</v>
       </c>
-    </row>
-    <row r="165" spans="1:5">
+      <c r="F164" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" s="2">
         <v>34830</v>
       </c>
@@ -3200,8 +3698,11 @@
       <c r="E165">
         <v>7</v>
       </c>
-    </row>
-    <row r="166" spans="1:5">
+      <c r="F165" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" s="2">
         <v>34810</v>
       </c>
@@ -3217,8 +3718,11 @@
       <c r="E166">
         <v>9</v>
       </c>
-    </row>
-    <row r="167" spans="1:5">
+      <c r="F166" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" s="2">
         <v>34806</v>
       </c>
@@ -3234,8 +3738,11 @@
       <c r="E167">
         <v>8</v>
       </c>
-    </row>
-    <row r="168" spans="1:5">
+      <c r="F167" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" s="2">
         <v>34794</v>
       </c>
@@ -3251,8 +3758,11 @@
       <c r="E168">
         <v>8</v>
       </c>
-    </row>
-    <row r="169" spans="1:5">
+      <c r="F168" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" s="2">
         <v>34785</v>
       </c>
@@ -3268,8 +3778,11 @@
       <c r="E169">
         <v>9</v>
       </c>
-    </row>
-    <row r="170" spans="1:5">
+      <c r="F169" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" s="2">
         <v>34775</v>
       </c>
@@ -3285,8 +3798,11 @@
       <c r="E170">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:5">
+      <c r="F170" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" s="2">
         <v>34754</v>
       </c>
@@ -3302,8 +3818,11 @@
       <c r="E171">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:5">
+      <c r="F171" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" s="2">
         <v>34733</v>
       </c>
@@ -3319,8 +3838,11 @@
       <c r="E172">
         <v>6</v>
       </c>
-    </row>
-    <row r="173" spans="1:5">
+      <c r="F172" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" s="2">
         <v>34715</v>
       </c>
@@ -3336,8 +3858,11 @@
       <c r="E173">
         <v>7</v>
       </c>
-    </row>
-    <row r="174" spans="1:5">
+      <c r="F173" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" s="2">
         <v>34696</v>
       </c>
@@ -3353,8 +3878,11 @@
       <c r="E174">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="1:5">
+      <c r="F174" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" s="2">
         <v>34684</v>
       </c>
@@ -3370,8 +3898,11 @@
       <c r="E175">
         <v>4</v>
       </c>
-    </row>
-    <row r="176" spans="1:5">
+      <c r="F175" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" s="2">
         <v>34670</v>
       </c>
@@ -3387,8 +3918,11 @@
       <c r="E176">
         <v>7</v>
       </c>
-    </row>
-    <row r="177" spans="1:5">
+      <c r="F176" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" s="2">
         <v>34666</v>
       </c>
@@ -3404,8 +3938,11 @@
       <c r="E177">
         <v>7</v>
       </c>
-    </row>
-    <row r="178" spans="1:5">
+      <c r="F177" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" s="2">
         <v>34640</v>
       </c>
@@ -3421,8 +3958,11 @@
       <c r="E178">
         <v>7</v>
       </c>
-    </row>
-    <row r="179" spans="1:5">
+      <c r="F178" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" s="2">
         <v>34629</v>
       </c>
@@ -3438,8 +3978,11 @@
       <c r="E179">
         <v>5</v>
       </c>
-    </row>
-    <row r="180" spans="1:5">
+      <c r="F179" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" s="2">
         <v>34625</v>
       </c>
@@ -3455,8 +3998,11 @@
       <c r="E180">
         <v>7</v>
       </c>
-    </row>
-    <row r="181" spans="1:5">
+      <c r="F180" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" s="2">
         <v>34614</v>
       </c>
@@ -3472,8 +4018,11 @@
       <c r="E181">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="1:5">
+      <c r="F181" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" s="2">
         <v>34600</v>
       </c>
@@ -3489,8 +4038,11 @@
       <c r="E182">
         <v>4</v>
       </c>
-    </row>
-    <row r="183" spans="1:5">
+      <c r="F182" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" s="2">
         <v>34593</v>
       </c>
@@ -3506,8 +4058,11 @@
       <c r="E183">
         <v>8</v>
       </c>
-    </row>
-    <row r="184" spans="1:5">
+      <c r="F183" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" s="2">
         <v>34583</v>
       </c>
@@ -3523,8 +4078,11 @@
       <c r="E184">
         <v>6</v>
       </c>
-    </row>
-    <row r="185" spans="1:5">
+      <c r="F184" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" s="2">
         <v>34561</v>
       </c>
@@ -3540,8 +4098,11 @@
       <c r="E185">
         <v>8</v>
       </c>
-    </row>
-    <row r="186" spans="1:5">
+      <c r="F185" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" s="2">
         <v>34554</v>
       </c>
@@ -3557,8 +4118,11 @@
       <c r="E186">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="1:5">
+      <c r="F186" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" s="2">
         <v>34530</v>
       </c>
@@ -3574,8 +4138,11 @@
       <c r="E187">
         <v>8</v>
       </c>
-    </row>
-    <row r="188" spans="1:5">
+      <c r="F187" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" s="2">
         <v>34516</v>
       </c>
@@ -3591,8 +4158,11 @@
       <c r="E188">
         <v>8</v>
       </c>
-    </row>
-    <row r="189" spans="1:5">
+      <c r="F188" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" s="2">
         <v>34510</v>
       </c>
@@ -3608,8 +4178,11 @@
       <c r="E189">
         <v>8</v>
       </c>
-    </row>
-    <row r="190" spans="1:5">
+      <c r="F189" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" s="2">
         <v>34496</v>
       </c>
@@ -3625,8 +4198,11 @@
       <c r="E190">
         <v>7</v>
       </c>
-    </row>
-    <row r="191" spans="1:5">
+      <c r="F190" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" s="2">
         <v>34488</v>
       </c>
@@ -3642,8 +4218,11 @@
       <c r="E191">
         <v>7</v>
       </c>
-    </row>
-    <row r="192" spans="1:5">
+      <c r="F191" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" s="2">
         <v>34474</v>
       </c>
@@ -3659,8 +4238,11 @@
       <c r="E192">
         <v>6</v>
       </c>
-    </row>
-    <row r="193" spans="1:5">
+      <c r="F192" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" s="2">
         <v>34446</v>
       </c>
@@ -3676,8 +4258,11 @@
       <c r="E193">
         <v>7</v>
       </c>
-    </row>
-    <row r="194" spans="1:5">
+      <c r="F193" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" s="2">
         <v>34440</v>
       </c>
@@ -3693,8 +4278,11 @@
       <c r="E194">
         <v>8</v>
       </c>
-    </row>
-    <row r="195" spans="1:5">
+      <c r="F194" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" s="2">
         <v>34421</v>
       </c>
@@ -3710,8 +4298,11 @@
       <c r="E195">
         <v>7</v>
       </c>
-    </row>
-    <row r="196" spans="1:5">
+      <c r="F195" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" s="2">
         <v>34418</v>
       </c>
@@ -3727,8 +4318,11 @@
       <c r="E196">
         <v>6</v>
       </c>
-    </row>
-    <row r="197" spans="1:5">
+      <c r="F196" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" s="2">
         <v>34404</v>
       </c>
@@ -3744,8 +4338,11 @@
       <c r="E197">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:5">
+      <c r="F197" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" s="2">
         <v>34400</v>
       </c>
@@ -3761,8 +4358,11 @@
       <c r="E198">
         <v>8</v>
       </c>
-    </row>
-    <row r="199" spans="1:5">
+      <c r="F198" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" s="2">
         <v>34391</v>
       </c>
@@ -3778,8 +4378,11 @@
       <c r="E199">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:5">
+      <c r="F199" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" s="2">
         <v>34362</v>
       </c>
@@ -3795,8 +4398,11 @@
       <c r="E200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:5">
+      <c r="F200" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" s="2">
         <v>34349</v>
       </c>
@@ -3812,8 +4418,11 @@
       <c r="E201">
         <v>8</v>
       </c>
-    </row>
-    <row r="202" spans="1:5">
+      <c r="F201" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" s="2">
         <v>34340</v>
       </c>
@@ -3829,8 +4438,11 @@
       <c r="E202">
         <v>7</v>
       </c>
-    </row>
-    <row r="203" spans="1:5">
+      <c r="F202" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" s="2">
         <v>34320</v>
       </c>
@@ -3846,8 +4458,11 @@
       <c r="E203">
         <v>9</v>
       </c>
-    </row>
-    <row r="204" spans="1:5">
+      <c r="F203" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" s="2">
         <v>34307</v>
       </c>
@@ -3863,8 +4478,11 @@
       <c r="E204">
         <v>9</v>
       </c>
-    </row>
-    <row r="205" spans="1:5">
+      <c r="F204" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" s="2">
         <v>34292</v>
       </c>
@@ -3880,8 +4498,11 @@
       <c r="E205">
         <v>8</v>
       </c>
-    </row>
-    <row r="206" spans="1:5">
+      <c r="F205" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" s="2">
         <v>34288</v>
       </c>
@@ -3897,8 +4518,11 @@
       <c r="E206">
         <v>7</v>
       </c>
-    </row>
-    <row r="207" spans="1:5">
+      <c r="F206" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" s="2">
         <v>34275</v>
       </c>
@@ -3914,8 +4538,11 @@
       <c r="E207">
         <v>7</v>
       </c>
-    </row>
-    <row r="208" spans="1:5">
+      <c r="F207" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" s="2">
         <v>34270</v>
       </c>
@@ -3931,8 +4558,11 @@
       <c r="E208">
         <v>7</v>
       </c>
-    </row>
-    <row r="209" spans="1:5">
+      <c r="F208" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" s="2">
         <v>34255</v>
       </c>
@@ -3948,8 +4578,11 @@
       <c r="E209">
         <v>9</v>
       </c>
-    </row>
-    <row r="210" spans="1:5">
+      <c r="F209" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" s="2">
         <v>34250</v>
       </c>
@@ -3965,8 +4598,11 @@
       <c r="E210">
         <v>8</v>
       </c>
-    </row>
-    <row r="211" spans="1:5">
+      <c r="F210" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" s="2">
         <v>34236</v>
       </c>
@@ -3982,8 +4618,11 @@
       <c r="E211">
         <v>8</v>
       </c>
-    </row>
-    <row r="212" spans="1:5">
+      <c r="F211" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" s="2">
         <v>34225</v>
       </c>
@@ -3999,8 +4638,11 @@
       <c r="E212">
         <v>10</v>
       </c>
-    </row>
-    <row r="213" spans="1:5">
+      <c r="F212" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" s="2">
         <v>34222</v>
       </c>
@@ -4016,8 +4658,11 @@
       <c r="E213">
         <v>11</v>
       </c>
-    </row>
-    <row r="214" spans="1:5">
+      <c r="F213" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" s="2">
         <v>34204</v>
       </c>
@@ -4033,8 +4678,11 @@
       <c r="E214">
         <v>8</v>
       </c>
-    </row>
-    <row r="215" spans="1:5">
+      <c r="F214" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" s="2">
         <v>34189</v>
       </c>
@@ -4050,8 +4698,11 @@
       <c r="E215">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:5">
+      <c r="F215" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" s="2">
         <v>34169</v>
       </c>
@@ -4067,8 +4718,11 @@
       <c r="E216">
         <v>9</v>
       </c>
-    </row>
-    <row r="217" spans="1:5">
+      <c r="F216" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" s="2">
         <v>34159</v>
       </c>
@@ -4084,8 +4738,11 @@
       <c r="E217">
         <v>7</v>
       </c>
-    </row>
-    <row r="218" spans="1:5">
+      <c r="F217" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" s="2">
         <v>34149</v>
       </c>
@@ -4101,8 +4758,11 @@
       <c r="E218">
         <v>6</v>
       </c>
-    </row>
-    <row r="219" spans="1:5">
+      <c r="F218" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" s="2">
         <v>34138</v>
       </c>
@@ -4118,8 +4778,11 @@
       <c r="E219">
         <v>10</v>
       </c>
-    </row>
-    <row r="220" spans="1:5">
+      <c r="F219" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" s="2">
         <v>34125</v>
       </c>
@@ -4135,8 +4798,11 @@
       <c r="E220">
         <v>14</v>
       </c>
-    </row>
-    <row r="221" spans="1:5">
+      <c r="F220" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" s="2">
         <v>34110</v>
       </c>
@@ -4152,8 +4818,11 @@
       <c r="E221">
         <v>10</v>
       </c>
-    </row>
-    <row r="222" spans="1:5">
+      <c r="F221" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" s="2">
         <v>34099</v>
       </c>
@@ -4169,8 +4838,11 @@
       <c r="E222">
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:5">
+      <c r="F222" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" s="2">
         <v>34081</v>
       </c>
@@ -4186,8 +4858,11 @@
       <c r="E223">
         <v>8</v>
       </c>
-    </row>
-    <row r="224" spans="1:5">
+      <c r="F223" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" s="2">
         <v>34057</v>
       </c>
@@ -4203,8 +4878,11 @@
       <c r="E224">
         <v>11</v>
       </c>
-    </row>
-    <row r="225" spans="1:5">
+      <c r="F224" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" s="2">
         <v>34040</v>
       </c>
@@ -4220,8 +4898,11 @@
       <c r="E225">
         <v>13</v>
       </c>
-    </row>
-    <row r="226" spans="1:5">
+      <c r="F225" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" s="2">
         <v>34026</v>
       </c>
@@ -4237,8 +4918,11 @@
       <c r="E226">
         <v>12</v>
       </c>
-    </row>
-    <row r="227" spans="1:5">
+      <c r="F226" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" s="2">
         <v>34012</v>
       </c>
@@ -4254,8 +4938,11 @@
       <c r="E227">
         <v>15</v>
       </c>
-    </row>
-    <row r="228" spans="1:5">
+      <c r="F227" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" s="2">
         <v>33998</v>
       </c>
@@ -4271,8 +4958,11 @@
       <c r="E228">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="1:5">
+      <c r="F228" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" s="2">
         <v>33993</v>
       </c>
@@ -4287,6 +4977,9 @@
       </c>
       <c r="E229">
         <v>22</v>
+      </c>
+      <c r="F229" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
